--- a/Assignment7/CaliforniaEducationAttainment.xlsx
+++ b/Assignment7/CaliforniaEducationAttainment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Desktop\Spring2023\Web Mapping and Data Visualization\LA558_Eunice_Amissah\Assignment7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C44D91-F6DC-41BA-B4AF-A6CC37B69EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A882C296-3736-4053-9543-AF631046EE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10000" xr2:uid="{F98F4A69-85FF-4AEB-83DA-F513A921C353}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F98F4A69-85FF-4AEB-83DA-F513A921C353}"/>
   </bookViews>
   <sheets>
     <sheet name="EducationAttn" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,9 +53,6 @@
     <t>SomeCollege_Complete</t>
   </si>
   <si>
-    <t>HigheSchool_Complete</t>
-  </si>
-  <si>
     <t>HighSchool_NotComplete</t>
   </si>
   <si>
@@ -234,13 +231,19 @@
   </si>
   <si>
     <t>Yuba County</t>
+  </si>
+  <si>
+    <t>HighSchool_Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,13 +266,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,27 +275,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -309,16 +290,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -639,49 +620,49 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" style="3" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>6001</v>
@@ -689,1324 +670,1324 @@
       <c r="D2" s="4">
         <v>0.49643049495628899</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>0.227074630841227</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>0.11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>6003</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>0.39318885448916402</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>0.28689370485036098</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>6.2951496388028896E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>6005</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>0.195177304964539</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>0.41141055949566602</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0.25700000000000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>8.6903073286051999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>6007</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>0.297600709025301</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>0.38278925489037502</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0.307</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>9.6604697292620695E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>6009</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>0.19910732167892201</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>0.399502160167091</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.223</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>9.19573116649023E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>6011</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>0.352704157581407</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>0.28216898579830701</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.309</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>0.26674795581695598</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>6013</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>0.146535647683259</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>0.28218180914759899</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0.30499999999999999</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>0.102561427045291</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>6015</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>0.44056172517453002</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>0.33502512307770399</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>0.194132873166523</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>6017</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>0.16119372684362801</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>0.37052149967011799</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>0.31</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>5.3218496313932502E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>6019</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>0.36834141304036</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>0.32585376249644799</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>0.22092396218129201</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>6021</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>0.226329402495415</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>0.313108122881819</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>0.22700000000000001</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>0.23521373127801501</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>6023</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>0.14895594183885399</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>0.36718008847199302</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>0.30299999999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>9.0081543463198896E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>6025</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>0.31192240046900799</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>0.296797772679043</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>0.23100000000000001</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>0.295600678353451</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="3">
         <v>6027</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>0.15197656597168699</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>0.34344536592463298</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>7.9150298268587202E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C16" s="3">
         <v>6029</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>0.27273388622144601</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>0.30768158220203801</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>0.30499999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>0.24052093009780101</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="3">
         <v>6031</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>0.17607466278431799</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>0.33188342757720701</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>0.26369895712876201</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
         <v>6033</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>0.14320117972819599</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>0.39186865378316399</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>0.13404847690795901</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="3">
         <v>6035</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>0.17517605633802799</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>0.35834395428195498</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="1">
         <v>0.29899999999999999</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>0.19952308514574699</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="3">
         <v>6037</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>0.117707519631624</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>0.25607503314403002</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="1">
         <v>0.32400000000000001</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>0.199571630472485</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="3">
         <v>6039</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>0.34044369155371501</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>0.32170066854006701</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>0.28191289704077199</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
         <v>6041</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>0.16377709920566499</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>0.23109496626881201</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="1">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>6.5760249091852602E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="3">
         <v>6043</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>0.60148936170212797</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>0.39598904758380798</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>9.1245467327758498E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C24" s="3">
         <v>6045</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <v>0.28868497002886101</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>0.35821399518042701</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="1">
         <v>0.224</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>0.133597335420792</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C25" s="3">
         <v>6047</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <v>0.24500007674479299</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <v>0.29776201038311101</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="1">
         <v>0.26300000000000001</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>0.29646865424480701</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C26" s="3">
         <v>6049</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>0.140570889816936</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>0.33211456429006703</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>0.26500000000000001</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>0.145490554539915</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C27" s="3">
         <v>6051</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="1">
         <v>0.19698354661791601</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>0.35326945351163502</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>0.12782984100242201</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C28" s="3">
         <v>6053</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="1">
         <v>0.29525113193640101</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="1">
         <v>0.26211661034349998</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="1">
         <v>0.224</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>0.27010523163793498</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C29" s="3">
         <v>6055</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="1">
         <v>0.26490068585931997</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="1">
         <v>0.30282612004667903</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="1">
         <v>0.20300000000000001</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>0.14755695367598601</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C30" s="3">
         <v>6057</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="1">
         <v>0.37002384697346402</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="1">
         <v>0.37412827691524603</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="1">
         <v>0.18</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>4.8701959786205097E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="3">
         <v>6059</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="1">
         <v>0.38675235428862298</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="1">
         <v>0.27251079788275001</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="1">
         <v>0.19</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>0.13388919483522099</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C32" s="3">
         <v>6061</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="1">
         <v>0.42115793354238801</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="1">
         <v>0.35648521016572698</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="1">
         <v>0.17199999999999999</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>5.1744018960507197E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C33" s="3">
         <v>6063</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="1">
         <v>0.41600644316637603</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="1">
         <v>0.44228085332624401</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="1">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>5.4495912806539502E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C34" s="3">
         <v>6065</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="1">
         <v>0.230212002392504</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="1">
         <v>0.325303694435013</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="1">
         <v>0.27300000000000002</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>0.170094951799277</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C35" s="3">
         <v>6067</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="1">
         <v>0.23533346303848299</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="1">
         <v>0.34056009341444998</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="1">
         <v>0.26900000000000002</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>0.119347821812124</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="3">
         <v>6069</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="1">
         <v>0.31996977327144399</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="1">
         <v>0.35931849622600298</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="1">
         <v>0.22</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>0.167487804286096</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C37" s="3">
         <v>6071</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="1">
         <v>0.205324854986287</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="1">
         <v>0.323260500005081</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="1">
         <v>0.26800000000000002</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>0.18895363607724899</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C38" s="3">
         <v>6073</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="1">
         <v>0.21913221346828601</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="1">
         <v>0.29855493730125598</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="1">
         <v>0.26900000000000002</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>0.116848285961886</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C39" s="3">
         <v>6075</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="1">
         <v>0.40263249887510499</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="1">
         <v>0.17890209864304499</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="1">
         <v>0.182</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="1">
         <v>0.112196630037055</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C40" s="3">
         <v>6077</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="1">
         <v>0.59516756196577802</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="1">
         <v>0.32069665208141801</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="1">
         <v>0.114</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>0.197005280583465</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C41" s="3">
         <v>6079</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="1">
         <v>0.194685427514317</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="1">
         <v>0.35641514688187997</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="1">
         <v>0.28799999999999998</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>8.0673381567125405E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C42" s="3">
         <v>6081</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="1">
         <v>0.36737546171508401</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="1">
         <v>0.234716978396141</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="1">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>9.1809601835756996E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C43" s="3">
         <v>6083</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="1">
         <v>0.52455560650852695</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="1">
         <v>0.295138189146394</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <v>0.180919821505686</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C44" s="3">
         <v>6085</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="1">
         <v>0.351360299409817</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="1">
         <v>0.210955911342462</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="1">
         <v>0.17299999999999999</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="1">
         <v>0.108127336271984</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C45" s="3">
         <v>6087</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="1">
         <v>0.54391969004840801</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="1">
         <v>0.30479206600550002</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="1">
         <v>0.11724310359196601</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C46" s="3">
         <v>6089</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="1">
         <v>0.41891268716837499</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="1">
         <v>0.42654868632832799</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="1">
         <v>0.159</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="1">
         <v>8.9356110381077505E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C47" s="3">
         <v>6091</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="1">
         <v>0.22580845819499401</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="1">
         <v>0.42522756827048103</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="1">
         <v>0.25800000000000001</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="1">
         <v>5.6350238404854799E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C48" s="3">
         <v>6093</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="1">
         <v>0.223233636757694</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="1">
         <v>0.413245197529715</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="1">
         <v>0.29499999999999998</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="1">
         <v>0.100859634422617</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C49" s="3">
         <v>6095</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="1">
         <v>0.215156875523694</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="1">
         <v>0.37242326193196501</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="1">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="1">
         <v>0.111493027885259</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C50" s="3">
         <v>6097</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="1">
         <v>0.27837572289484402</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="1">
         <v>0.33722734222671102</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="1">
         <v>0.23799999999999999</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="1">
         <v>0.108344905946219</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C51" s="3">
         <v>6099</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="1">
         <v>0.37129150359803098</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="1">
         <v>0.32052082915451202</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="1">
         <v>0.183</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="1">
         <v>0.20046879208669799</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C52" s="3">
         <v>6101</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="1">
         <v>0.17934735888957001</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="1">
         <v>0.35133801948452298</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="1">
         <v>0.3</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="1">
         <v>0.203508447404119</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C53" s="3">
         <v>6103</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="1">
         <v>0.199947589098533</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="1">
         <v>0.39791508887601901</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="1">
         <v>0.245</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="1">
         <v>0.14231300396489499</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C54" s="3">
         <v>6105</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="1">
         <v>0.16988907203635201</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="1">
         <v>0.36860641959497298</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="1">
         <v>6.1154246377971698E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C55" s="3">
         <v>6107</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="1">
         <v>0.18602417353718101</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="1">
         <v>0.309324331603613</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="1">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="1">
         <v>0.27381897186360898</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C56" s="3">
         <v>6109</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="1">
         <v>0.152019104734886</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="1">
         <v>0.42301052382641602</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="1">
         <v>0.26500000000000001</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="1">
         <v>7.9082416932718502E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C57" s="3">
         <v>6111</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="1">
         <v>0.24585550431595099</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="1">
         <v>0.31826509042511503</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="1">
         <v>0.252</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="1">
         <v>0.14374940195029401</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C58" s="3">
         <v>6113</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="1">
         <v>0.34032029367502598</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="1">
         <v>0.26786385564814202</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="1">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="1">
         <v>0.123989724954577</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C59" s="3">
         <v>6115</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="1">
         <v>0.43072959087776502</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="1">
         <v>0.40222803944338398</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="1">
         <v>0.18832050701674999</v>
       </c>
     </row>
